--- a/mbs-perturbation/mega/svm/mega-svm-linear-results.xlsx
+++ b/mbs-perturbation/mega/svm/mega-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2993630573248408</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4585365853658536</v>
+        <v>0.6258503401360545</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7714493727598566</v>
+        <v>0.9002576164874553</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5415546594982079</v>
+        <v>0.9594534050179211</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3943661971830986</v>
+        <v>0.8351648351648352</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8449324324324324</v>
+        <v>0.9835585585585584</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2537313432835821</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.4838709677419356</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4176389842141387</v>
+        <v>0.6876000915122397</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.12</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6287462823152596</v>
+        <v>0.6684397163120568</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4965246772231339</v>
+        <v>0.8430068123091379</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4476950354609929</v>
+        <v>0.5349290780141843</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3651655767527054</v>
+        <v>0.5463105619418984</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6408643462439791</v>
+        <v>0.8398618775776463</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/mega-svm-linear-results.xlsx
+++ b/mbs-perturbation/mega/svm/mega-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6258503401360545</v>
+        <v>0.6095238095238097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9002576164874553</v>
+        <v>0.8491796664873588</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9594534050179211</v>
+        <v>0.822754168908015</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8837209302325582</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8351648351648352</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9835585585585584</v>
+        <v>0.9950460988028073</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3191489361702128</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4838709677419356</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6876000915122397</v>
+        <v>0.7501032062749414</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6684397163120568</v>
+        <v>0.7730838034952526</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8430068123091379</v>
+        <v>0.866822794691647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5349290780141843</v>
+        <v>0.5247357293868922</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5463105619418984</v>
+        <v>0.5798688837237023</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8398618775776463</v>
+        <v>0.8380333887936751</v>
       </c>
     </row>
   </sheetData>
